--- a/clustering/two_step/second_step/results/descriptive_stat/normalized/statistics_cluster_M.xlsx
+++ b/clustering/two_step/second_step/results/descriptive_stat/normalized/statistics_cluster_M.xlsx
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="12">
   <si>
     <t>Cluster_0</t>
   </si>
   <si>
     <t>Cluster_1</t>
+  </si>
+  <si>
+    <t>Cluster_2</t>
   </si>
   <si>
     <t>len</t>
@@ -415,45 +418,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.2925855496525397</v>
+        <v>-0.5994698151491027</v>
       </c>
       <c r="C3">
-        <v>0.1737507224374857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.03457678274554295</v>
+      </c>
+      <c r="D3">
+        <v>0.02176315352458462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>-1.991681727284274</v>
@@ -461,71 +473,92 @@
       <c r="C4">
         <v>-1.961583230366919</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>-1.836163833590414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>-1.089462906679643</v>
+        <v>-1.663508214222308</v>
       </c>
       <c r="C5">
-        <v>-0.4800628212483919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.6111185903174639</v>
+      </c>
+      <c r="D5">
+        <v>-0.7813989769957421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.348669826705507</v>
+        <v>-1.028274559330617</v>
       </c>
       <c r="C6">
-        <v>0.09143505181986958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.06648939355775201</v>
+      </c>
+      <c r="D6">
+        <v>-0.09174397452110709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.009604206944962612</v>
+        <v>-0.3172244912446201</v>
       </c>
       <c r="C7">
-        <v>0.3588536441426526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.2789100987234978</v>
+      </c>
+      <c r="D7">
+        <v>0.3062860077328551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.4081367193662466</v>
+        <v>0.289724358233968</v>
       </c>
       <c r="C8">
-        <v>0.9724666872869961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.8389844969364055</v>
+      </c>
+      <c r="D8">
+        <v>0.6410289546982793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>1.689679785919556</v>
+        <v>2.043596445968649</v>
       </c>
       <c r="C9">
+        <v>1.657022946979226</v>
+      </c>
+      <c r="D9">
         <v>2.200893431560979</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.8610003633305601</v>
+        <v>0.9545647659487466</v>
       </c>
       <c r="C10">
-        <v>0.9162485111017686</v>
+        <v>0.9107965264650631</v>
+      </c>
+      <c r="D10">
+        <v>0.8634649814139665</v>
       </c>
     </row>
   </sheetData>
@@ -535,117 +568,147 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>5.489334833591508</v>
+        <v>3.189785629772123</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1.759410453744207</v>
+      </c>
+      <c r="D3">
+        <v>3.37918447852988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>3.33938506206688</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>4.589269242767005</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>5.334886610541559</v>
+        <v>0.6678770124133796</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>5.927575012365098</v>
+        <v>4.709791791955158</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>5.537854514651508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>6.330504751757372</v>
+        <v>6.326077470640407</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>4.972432544898653</v>
+      </c>
+      <c r="D8">
+        <v>6.154424319029669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>6.759987719101829</v>
+      </c>
+      <c r="C9">
+        <v>6.619964468244863</v>
+      </c>
+      <c r="D9">
         <v>7.287249618674712</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9403098641340853</v>
+        <v>2.848483122720157</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.43354898701246</v>
+      </c>
+      <c r="D10">
+        <v>2.884419821568726</v>
       </c>
     </row>
   </sheetData>
@@ -655,45 +718,54 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8407985888181221</v>
+        <v>0.6869334201135687</v>
       </c>
       <c r="C3">
-        <v>0.9250786328850853</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1.304420660910554</v>
+      </c>
+      <c r="D3">
+        <v>0.687912418741189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -701,10 +773,13 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -712,10 +787,13 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -723,10 +801,13 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -734,38 +815,50 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>2.64819800731913</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.857175890405854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3.041925689833965</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>4.94168006842224</v>
+      </c>
+      <c r="C9">
         <v>5.829310513208528</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5.25418705465537</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1.507590037222558</v>
+        <v>1.563915529675711</v>
       </c>
       <c r="C10">
-        <v>1.668169766627023</v>
+        <v>1.762444862038433</v>
+      </c>
+      <c r="D10">
+        <v>1.437364489788788</v>
       </c>
     </row>
   </sheetData>
@@ -775,45 +868,54 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1.702668303339605</v>
+        <v>0.9994045798586664</v>
       </c>
       <c r="C3">
-        <v>1.600025866256148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1.449964749465613</v>
+      </c>
+      <c r="D3">
+        <v>1.956097173433063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0.2821280191850427</v>
@@ -821,71 +923,92 @@
       <c r="C4">
         <v>0.2401138239819332</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0.4092153956925946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.8209897722439503</v>
+        <v>0.5523872140440304</v>
       </c>
       <c r="C5">
-        <v>0.7767317760873227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.7847008650600159</v>
+      </c>
+      <c r="D5">
+        <v>1.030595878529808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1.248471344637561</v>
+        <v>0.7939304139460032</v>
       </c>
       <c r="C6">
-        <v>1.392556427636677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1.230374765643984</v>
+      </c>
+      <c r="D6">
+        <v>1.775105329298117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2.033615010098176</v>
+        <v>0.9837422074416829</v>
       </c>
       <c r="C7">
-        <v>1.773046452203429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1.624618959879424</v>
+      </c>
+      <c r="D7">
+        <v>2.557266046563514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>2.71447556024104</v>
+        <v>1.36313977467546</v>
       </c>
       <c r="C8">
-        <v>2.459671678093722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>2.132501574287124</v>
+      </c>
+      <c r="D8">
+        <v>2.764799949736314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>2.620714597900779</v>
+      </c>
+      <c r="C9">
+        <v>2.715668642364101</v>
+      </c>
+      <c r="D9">
         <v>2.817007077979205</v>
       </c>
-      <c r="C9">
-        <v>2.816936941890638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.8624932805967921</v>
+        <v>0.5509898704321791</v>
       </c>
       <c r="C10">
-        <v>0.7719997699567523</v>
+        <v>0.686486774011282</v>
+      </c>
+      <c r="D10">
+        <v>0.8148535121049478</v>
       </c>
     </row>
   </sheetData>
@@ -895,117 +1018,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.5133672058907335</v>
+        <v>-2.033309704757042</v>
       </c>
       <c r="C3">
-        <v>-0.0994997234293742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-0.1752656587134101</v>
+      </c>
+      <c r="D3">
+        <v>0.08815668419317313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>-2.516864618247217</v>
+      </c>
+      <c r="C4">
         <v>-3.285924808166546</v>
       </c>
-      <c r="C4">
-        <v>-2.50105240312438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>-1.61905953113803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>-1.174152752351665</v>
+        <v>-2.36704969919314</v>
       </c>
       <c r="C5">
-        <v>-1.057251425346537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.9739237892514708</v>
+      </c>
+      <c r="D5">
+        <v>-0.539636857788881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.4949818798543945</v>
+        <v>-2.16658899147171</v>
       </c>
       <c r="C6">
-        <v>-0.4247014073764466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.4615676140185732</v>
+      </c>
+      <c r="D6">
+        <v>-0.2261854220482388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.1894979647317772</v>
+        <v>-2.093785313422523</v>
       </c>
       <c r="C7">
-        <v>0.4096756307281949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.3247896108725265</v>
+      </c>
+      <c r="D7">
+        <v>0.1208250650180542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.1892147619713372</v>
+        <v>-1.751979857395808</v>
       </c>
       <c r="C8">
-        <v>0.897104546396137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.7633857040066346</v>
+      </c>
+      <c r="D8">
+        <v>0.7614730423032751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>1.435380691412932</v>
+        <v>-0.4333666505875231</v>
       </c>
       <c r="C9">
+        <v>1.054168841254934</v>
+      </c>
+      <c r="D9">
         <v>2.062836939184971</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9600869007821652</v>
+        <v>0.4226677820706845</v>
       </c>
       <c r="C10">
-        <v>1.101141646035758</v>
+        <v>0.8956805970738726</v>
+      </c>
+      <c r="D10">
+        <v>0.7305745740093349</v>
       </c>
     </row>
   </sheetData>
@@ -1015,117 +1168,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.03655529936936341</v>
+        <v>0.5969094210964818</v>
       </c>
       <c r="C3">
-        <v>0.3947080179332385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.7101369623809451</v>
+      </c>
+      <c r="D3">
+        <v>-0.2642019894034712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>-1.204150299998699</v>
+      </c>
+      <c r="C4">
+        <v>-0.4161073388396142</v>
+      </c>
+      <c r="D4">
         <v>-1.301220250681611</v>
       </c>
-      <c r="C4">
-        <v>-1.015574330026049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.7593895540546194</v>
+        <v>0.1829896398300365</v>
       </c>
       <c r="C5">
-        <v>-0.1663711811503151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.4759617339297688</v>
+      </c>
+      <c r="D5">
+        <v>-0.828230808801931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.210689113045362</v>
+        <v>0.4761697375883189</v>
       </c>
       <c r="C6">
-        <v>0.2464151699829573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.6580724941224461</v>
+      </c>
+      <c r="D6">
+        <v>-0.4399895957490886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.1829896398300363</v>
+        <v>0.8097282914467014</v>
       </c>
       <c r="C7">
-        <v>0.698837780926273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.9020475256555428</v>
+      </c>
+      <c r="D7">
+        <v>-0.1259571206859637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.7365261091766183</v>
+        <v>0.9913716886574381</v>
       </c>
       <c r="C8">
-        <v>0.9806494992722108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.059179456102192</v>
+      </c>
+      <c r="D8">
+        <v>0.2440599871040566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>1.290887449559923</v>
+        <v>1.499172658764922</v>
       </c>
       <c r="C9">
-        <v>1.499172658764922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1.269225535332376</v>
+      </c>
+      <c r="D9">
+        <v>1.066685358276871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.714009253516544</v>
+        <v>0.5381206755059541</v>
       </c>
       <c r="C10">
-        <v>0.621751688228681</v>
+        <v>0.4118430773565845</v>
+      </c>
+      <c r="D10">
+        <v>0.5790199438439612</v>
       </c>
     </row>
   </sheetData>
@@ -1135,117 +1318,147 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.7065829039818935</v>
+        <v>-2.044621984360735</v>
       </c>
       <c r="C3">
-        <v>-0.6983087527538441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-0.9270594236084594</v>
+      </c>
+      <c r="D3">
+        <v>-0.1937808865420243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>-3.345980568471332</v>
       </c>
       <c r="C4">
+        <v>-2.433533729684393</v>
+      </c>
+      <c r="D4">
         <v>-2.853473361036237</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>-1.881868343727862</v>
+        <v>-2.25027854478474</v>
       </c>
       <c r="C5">
-        <v>-1.147728994306745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-1.310146546479367</v>
+      </c>
+      <c r="D5">
+        <v>-0.2836725502794511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.917932841241849</v>
+        <v>-1.983321566403809</v>
       </c>
       <c r="C6">
-        <v>-0.8031682711102649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.9183731574051373</v>
+      </c>
+      <c r="D6">
+        <v>0.0337103654366197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.04212899151362431</v>
+        <v>-1.9133280351816</v>
       </c>
       <c r="C7">
-        <v>-0.3407521111498193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.7899769468928036</v>
+      </c>
+      <c r="D7">
+        <v>0.068305877012158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.08232266624241368</v>
+        <v>-1.861593954858593</v>
       </c>
       <c r="C8">
-        <v>0.04737331846046484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.436997891733777</v>
+      </c>
+      <c r="D8">
+        <v>0.09220161421203921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.1458790659171155</v>
+        <v>-1.615418297613504</v>
       </c>
       <c r="C9">
+        <v>0.1415879251970326</v>
+      </c>
+      <c r="D9">
         <v>0.1482838957051715</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9320695899582022</v>
+        <v>0.3176359314664701</v>
       </c>
       <c r="C10">
-        <v>0.7458578167233495</v>
+        <v>0.5766481549205948</v>
+      </c>
+      <c r="D10">
+        <v>0.5635868165289116</v>
       </c>
     </row>
   </sheetData>
@@ -1255,117 +1468,147 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.9426766037857055</v>
+        <v>0.7902771689402134</v>
       </c>
       <c r="C3">
-        <v>0.521074684914657</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.5758030555493895</v>
+      </c>
+      <c r="D3">
+        <v>0.8209823356252169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-1.06700502472657</v>
+        <v>-0.511979698011803</v>
       </c>
       <c r="C4">
         <v>-1.06700502472657</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>-1.06700502472657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.2799017339848638</v>
+        <v>-0.03870008440342506</v>
       </c>
       <c r="C5">
-        <v>-0.1350431275884022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.1063209769540875</v>
+      </c>
+      <c r="D5">
+        <v>0.1886316070531146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.8274207014996069</v>
+        <v>0.2543238447933751</v>
       </c>
       <c r="C6">
-        <v>0.2058600099257523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.304201295446086</v>
+      </c>
+      <c r="D6">
+        <v>0.6986202625683036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1.220865640083424</v>
+        <v>1.217198796818518</v>
       </c>
       <c r="C7">
-        <v>0.7315558931402096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.8295918589575476</v>
+      </c>
+      <c r="D7">
+        <v>1.055758734036983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1.58444530581505</v>
+        <v>1.746902098051022</v>
       </c>
       <c r="C8">
-        <v>1.313212666877009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.334631439304246</v>
+      </c>
+      <c r="D8">
+        <v>1.525580713190468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2.374972758495573</v>
       </c>
       <c r="C9">
+        <v>2.144764329484018</v>
+      </c>
+      <c r="D9">
         <v>2.780618773795624</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.7819815989198841</v>
+        <v>0.9200796006109733</v>
       </c>
       <c r="C10">
-        <v>0.8200261032950593</v>
+        <v>0.8493183144002537</v>
+      </c>
+      <c r="D10">
+        <v>0.7765518116295319</v>
       </c>
     </row>
   </sheetData>
@@ -1375,117 +1618,147 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1.257992327736954</v>
+        <v>5.794317117696364</v>
       </c>
       <c r="C3">
-        <v>0.9770977808446712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.816360743075715</v>
+      </c>
+      <c r="D3">
+        <v>-0.0105754901054492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>2.877072651392332</v>
+      </c>
+      <c r="C4">
+        <v>-0.4417925840874461</v>
+      </c>
+      <c r="D4">
         <v>-0.6387535272323669</v>
       </c>
-      <c r="C4">
-        <v>-0.6352315964569463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.3078341103746831</v>
+        <v>3.815515962161961</v>
       </c>
       <c r="C5">
-        <v>-0.2911855041417306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0114509865122599</v>
+      </c>
+      <c r="D5">
+        <v>-0.4120571297584993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.04738659811230524</v>
+        <v>4.622496662433849</v>
       </c>
       <c r="C6">
-        <v>0.0172395208596675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.4426174914613996</v>
+      </c>
+      <c r="D6">
+        <v>-0.261032606513661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.2540873829703064</v>
+        <v>5.635410179774643</v>
       </c>
       <c r="C7">
-        <v>0.574991634819267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.9279416627678524</v>
+      </c>
+      <c r="D7">
+        <v>-0.0425256077848601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>2.739488598929698</v>
+        <v>7.476667588663474</v>
       </c>
       <c r="C8">
-        <v>1.459297821054957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.439323462327846</v>
+      </c>
+      <c r="D8">
+        <v>0.0850254900183141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>14.88042004887617</v>
       </c>
       <c r="C9">
-        <v>8.175339945002479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>2.900659739447797</v>
+      </c>
+      <c r="D9">
+        <v>3.049941256393083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>2.660313415070016</v>
+        <v>2.553556582472462</v>
       </c>
       <c r="C10">
-        <v>1.903270218584703</v>
+        <v>0.8241782890774424</v>
+      </c>
+      <c r="D10">
+        <v>0.6443810280207486</v>
       </c>
     </row>
   </sheetData>
@@ -1495,117 +1768,147 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.06988246023815169</v>
+        <v>-0.5098870047150199</v>
       </c>
       <c r="C3">
-        <v>-0.4515723081394174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-0.6937583292591044</v>
+      </c>
+      <c r="D3">
+        <v>0.0759947942367509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-1.448065218161697</v>
+        <v>-1.373862620047846</v>
       </c>
       <c r="C4">
         <v>-1.585742797026851</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>-1.307327567227326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.597659129873916</v>
+        <v>-0.8444035288053926</v>
       </c>
       <c r="C5">
-        <v>-0.8786477678510821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-1.021515137351677</v>
+      </c>
+      <c r="D5">
+        <v>-0.4145880734015608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.2755004407319887</v>
+        <v>-0.5299752970328162</v>
       </c>
       <c r="C6">
-        <v>-0.5603577935025302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.8076210526690245</v>
+      </c>
+      <c r="D6">
+        <v>-0.1620453476969247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.04958660342153526</v>
+        <v>-0.3301822410979658</v>
       </c>
       <c r="C7">
-        <v>-0.3114445444686509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.5770518319803185</v>
+      </c>
+      <c r="D7">
+        <v>0.2131727539862593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.3809300692372398</v>
+        <v>-0.231372824519172</v>
       </c>
       <c r="C8">
-        <v>-0.1190209908232361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.402295255698005</v>
+      </c>
+      <c r="D8">
+        <v>0.4913584786120177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>0.0499249846579315</v>
+      </c>
+      <c r="C9">
+        <v>0.3790412678607149</v>
+      </c>
+      <c r="D9">
         <v>2.206371402805686</v>
       </c>
-      <c r="C9">
-        <v>0.707373041810618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.705624049195458</v>
+        <v>0.353568865065463</v>
       </c>
       <c r="C10">
-        <v>0.4706279287247634</v>
+        <v>0.4107718664116783</v>
+      </c>
+      <c r="D10">
+        <v>0.6112082286236441</v>
       </c>
     </row>
   </sheetData>
@@ -1615,100 +1918,124 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.9945622166875688</v>
+        <v>2.032828447129081</v>
       </c>
       <c r="C3">
-        <v>1.191993743342137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.285751042153302</v>
+      </c>
+      <c r="D3">
+        <v>0.1230298031526059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.6761383797258032</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.190831998769848</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1.580541681298365</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.84220604142522</v>
       </c>
       <c r="C6">
-        <v>0.4718621371434389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1.96699219190763</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.7164242896602252</v>
+        <v>2.195252990456006</v>
       </c>
       <c r="C7">
-        <v>1.580145657624677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>2.489847954045186</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>2.225038339970668</v>
+        <v>2.91765341399586</v>
       </c>
       <c r="C8">
-        <v>2.245148800882279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3.028503117770701</v>
+      </c>
+      <c r="D8">
+        <v>0.0152883626214622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>4.350409816846524</v>
@@ -1716,16 +2043,22 @@
       <c r="C9">
         <v>4.249063870112934</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1.812636061025076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1.293800290501188</v>
+        <v>0.9651389107294188</v>
       </c>
       <c r="C10">
-        <v>1.148606749268047</v>
+        <v>0.8448351427972218</v>
+      </c>
+      <c r="D10">
+        <v>0.332632003650713</v>
       </c>
     </row>
   </sheetData>
@@ -1735,117 +2068,147 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.3627416408889404</v>
+        <v>-0.3086487721012303</v>
       </c>
       <c r="C3">
-        <v>-0.2426665186711318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-0.1949809400411185</v>
+      </c>
+      <c r="D3">
+        <v>0.3332878218447429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>-1.53403970877633</v>
       </c>
       <c r="C4">
+        <v>-1.213249144266792</v>
+      </c>
+      <c r="D4">
         <v>-1.706200159560169</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.2798405903362275</v>
+        <v>-0.6167008037170053</v>
       </c>
       <c r="C5">
-        <v>-0.9619087850017118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.7763699142412255</v>
+      </c>
+      <c r="D5">
+        <v>-0.5876489458676397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1215746174338095</v>
+        <v>-0.4421083257829973</v>
       </c>
       <c r="C6">
-        <v>-0.6630531033192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.4647347848219618</v>
+      </c>
+      <c r="D6">
+        <v>0.2749809797686747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.6304393771304148</v>
+        <v>-0.2143711806727772</v>
       </c>
       <c r="C7">
-        <v>-0.2068233512347765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01178130878886</v>
+      </c>
+      <c r="D7">
+        <v>0.8787214503309307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1.021488836599263</v>
+        <v>0.0438068944575751</v>
       </c>
       <c r="C8">
-        <v>0.6996781250226486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.3306663203178946</v>
+      </c>
+      <c r="D8">
+        <v>1.134785069653569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>0.6108844340342984</v>
+      </c>
+      <c r="C9">
+        <v>1.050879877273915</v>
+      </c>
+      <c r="D9">
         <v>1.488747093908329</v>
       </c>
-      <c r="C9">
-        <v>1.477097524525143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.6509802607960105</v>
+        <v>0.4516618613159069</v>
       </c>
       <c r="C10">
-        <v>0.8510939071168983</v>
+        <v>0.6050398888089156</v>
+      </c>
+      <c r="D10">
+        <v>0.9012331918504887</v>
       </c>
     </row>
   </sheetData>
